--- a/datasets/AspectJ/AspectJ_1.xlsx
+++ b/datasets/AspectJ/AspectJ_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\BugLocalization\datasets\AspectJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA2A58-2781-4229-9C20-D89777C48637}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01AAC0-A1E4-428D-BB38-1A8D4B80B6C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="36" windowWidth="19392" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1118,16 +1118,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
